--- a/docs/data/fake_data.xlsx
+++ b/docs/data/fake_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\book_R_zero\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\book_R_zero\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D10F25-3718-4118-A701-97E106D26A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40B9F32-0A40-405E-9434-7979B9396F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -39,13 +39,28 @@
     <t>Peso (g)</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>floresta</t>
+  </si>
+  <si>
+    <t>Floresta</t>
+  </si>
+  <si>
+    <t>Urbano</t>
+  </si>
+  <si>
+    <t>urbano</t>
+  </si>
+  <si>
+    <t>urban</t>
+  </si>
+  <si>
+    <t>parque</t>
+  </si>
+  <si>
+    <t>parque.</t>
+  </si>
+  <si>
+    <t>park</t>
   </si>
 </sst>
 </file>
@@ -366,7 +381,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,7 +443,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -456,7 +471,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -470,7 +485,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -484,7 +499,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -498,7 +513,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -512,7 +527,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -526,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -540,7 +555,7 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -554,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -568,7 +583,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -582,7 +597,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -596,7 +611,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
